--- a/DataFolder/train details.xlsx
+++ b/DataFolder/train details.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_2C4D502E4C9DDCAC1024847C93F9C9A0E297338B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C5645C-2191-44B8-985E-7DB8D426872F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-810" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,6 +73,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,7 +345,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="A1:S25"/>
+      <selection activeCell="S25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataFolder/train details.xlsx
+++ b/DataFolder/train details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c06507169d2dcdd/Documents/UiPath/MiniProj_TravelBuddy/DataFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2C4D502E4C9DDCAC1024847C93F9C9A0E297338B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C5645C-2191-44B8-985E-7DB8D426872F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2C4D502E4C9DDCAC1024847C93F9C9A0E297338B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88635E93-CDDA-4B62-B850-50D42FF1622D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,246 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+  <si>
+    <t>Chennai Mail</t>
+  </si>
+  <si>
+    <t>Sleeper Class (SL)
+265
+AVAILABLE-0106</t>
+  </si>
+  <si>
+    <t>AC 3 Tier (3A)
+680
+AVAILABLE-0195</t>
+  </si>
+  <si>
+    <t>AC 2 Tier (2A)
+945
+AVAILABLE-0030</t>
+  </si>
+  <si>
+    <t>22:40
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>04:20 Wed, 04 Jan
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Newtinsukia Exp</t>
+  </si>
+  <si>
+    <t>Sleeper Class (SL)
+255
+AVAILABLE-0011</t>
+  </si>
+  <si>
+    <t>AC 3 Tier (3A)
+660
+AVAILABLE-0028</t>
+  </si>
+  <si>
+    <t>AC 2 Tier (2A)
+910
+AVAILABLE-0010</t>
+  </si>
+  <si>
+    <t>03:10
+Sir M Viswesvaraya Terminal - Smvt</t>
+  </si>
+  <si>
+    <t>09:10
+Perambur</t>
+  </si>
+  <si>
+    <t>Chennai Express</t>
+  </si>
+  <si>
+    <t>Second Sitting (2S)
+155
+AVAILABLE-0378</t>
+  </si>
+  <si>
+    <t>AC Chair Car (CC)
+560
+AVAILABLE-0013</t>
+  </si>
+  <si>
+    <t>08:00
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>14:30
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Lalbagh Exp</t>
+  </si>
+  <si>
+    <t>Second Sitting (2S)
+160
+AVAILABLE-0626</t>
+  </si>
+  <si>
+    <t>AC Chair Car (CC)
+560
+AVAILABLE-0012</t>
+  </si>
+  <si>
+    <t>06:20
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>12:15
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Kaveri Express</t>
+  </si>
+  <si>
+    <t>Sleeper Class (SL)
+235
+AVAILABLE-0159</t>
+  </si>
+  <si>
+    <t>First Class AC (1A)
+1495
+AVAILABLE-0002</t>
+  </si>
+  <si>
+    <t>AC 3 Tier (3A)</t>
+  </si>
+  <si>
+    <t>23:50
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>06:45 Wed, 04 Jan
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Mas Vandebharat</t>
+  </si>
+  <si>
+    <t>AC Chair Car (CC)
+940
+AVAILABLE-0386</t>
+  </si>
+  <si>
+    <t>Executive Class (EC)
+1835
+AVAILABLE-0019</t>
+  </si>
+  <si>
+    <t>14:55
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>19:30
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>AC Chair Car (CC)
+1075
+AVAILABLE-0327</t>
+  </si>
+  <si>
+    <t>Executive Class (EC)
+1735
+AVAILABLE-0049</t>
+  </si>
+  <si>
+    <t>Anubhuti (EA)</t>
+  </si>
+  <si>
+    <t>16:15
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>21:30
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Brindavan Exp</t>
+  </si>
+  <si>
+    <t>Second Sitting (2S)
+160
+AVAILABLE-0738</t>
+  </si>
+  <si>
+    <t>AC Chair Car (CC)
+560
+GNWL12/WL9</t>
+  </si>
+  <si>
+    <t>15:10
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>21:10
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Mas Double Deck</t>
+  </si>
+  <si>
+    <t>AC Chair Car (CC)
+560
+AVAILABLE-0651</t>
+  </si>
+  <si>
+    <t>14:30
+Ksr Bengaluru</t>
+  </si>
+  <si>
+    <t>20:35
+MGR Chennai Central</t>
+  </si>
+  <si>
+    <t>Sanghamitra Exp</t>
+  </si>
+  <si>
+    <t>Sleeper Class (SL)
+255
+AVAILABLE-0003</t>
+  </si>
+  <si>
+    <t>AC 2 Tier (2A)</t>
+  </si>
+  <si>
+    <t>09:15
+Sir M Viswesvaraya Terminal - Smvt</t>
+  </si>
+  <si>
+    <t>14:35
+Perambur</t>
+  </si>
+  <si>
+    <t>Agtl Humsafar</t>
+  </si>
+  <si>
+    <t>AC 3 Tier (3A)
+745
+AVAILABLE-0144</t>
+  </si>
+  <si>
+    <t>10:15
+Sir M Viswesvaraya Terminal - Smvt</t>
+  </si>
+  <si>
+    <t>15:35
+Perambur</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,9 +295,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,45 +581,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="A1:XFD1048576"/>
+      <selection activeCell="H19" sqref="H16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
